--- a/database/industries/folad/fakhouz/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA8A64-5093-4D3F-B177-A72EFF4FA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3017FBA5-3FFF-461A-902D-B39A7F9B37D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -648,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I110"/>
+  <dimension ref="B1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -666,8 +681,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +698,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -690,8 +715,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -700,8 +730,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,8 +747,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,8 +764,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -734,8 +779,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,8 +806,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,10 +831,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -778,152 +848,247 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>16675</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10783</v>
       </c>
       <c r="G11" s="11">
+        <v>55436</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
+        <v>25121</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>154067</v>
+      </c>
+      <c r="L11" s="11">
         <v>50007</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>82955</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>109218</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>224798</v>
+      </c>
+      <c r="F12" s="13">
+        <v>256502</v>
       </c>
       <c r="G12" s="13">
+        <v>195535</v>
+      </c>
+      <c r="H12" s="13">
+        <v>126968</v>
+      </c>
+      <c r="I12" s="13">
+        <v>102372</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>226930</v>
+      </c>
+      <c r="L12" s="13">
         <v>138605</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>228579</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>261159</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>2138</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
       </c>
       <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
+        <v>17278</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>15709</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>31990</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>310557</v>
+      </c>
+      <c r="F14" s="13">
+        <v>273166</v>
       </c>
       <c r="G14" s="13">
+        <v>220302</v>
+      </c>
+      <c r="H14" s="13">
+        <v>206812</v>
+      </c>
+      <c r="I14" s="13">
+        <v>124234</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>200704</v>
+      </c>
+      <c r="L14" s="13">
         <v>228970</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>311972</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>366383</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
+      <c r="F15" s="11">
+        <v>0</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>554168</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>540451</v>
       </c>
       <c r="G16" s="15">
+        <v>471273</v>
+      </c>
+      <c r="H16" s="15">
+        <v>333780</v>
+      </c>
+      <c r="I16" s="15">
+        <v>269005</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>581701</v>
+      </c>
+      <c r="L16" s="15">
         <v>433291</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>655496</v>
       </c>
-      <c r="I16" s="15">
+      <c r="N16" s="15">
         <v>736760</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -932,128 +1097,208 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>128066</v>
+      </c>
+      <c r="F18" s="11">
+        <v>139497</v>
       </c>
       <c r="G18" s="11">
+        <v>135035</v>
+      </c>
+      <c r="H18" s="11">
+        <v>213548</v>
+      </c>
+      <c r="I18" s="11">
+        <v>290413</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11">
+        <v>395084</v>
+      </c>
+      <c r="L18" s="11">
         <v>264352</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>41692</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>54586</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13">
+        <v>21499</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
         <v>24977</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
+      <c r="E20" s="11">
+        <v>271759</v>
+      </c>
+      <c r="F20" s="11">
+        <v>290259</v>
       </c>
       <c r="G20" s="11">
+        <v>264690</v>
+      </c>
+      <c r="H20" s="11">
+        <v>309772</v>
+      </c>
+      <c r="I20" s="11">
+        <v>90022</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11">
+        <v>324151</v>
+      </c>
+      <c r="L20" s="11">
         <v>167385</v>
       </c>
-      <c r="H20" s="11">
+      <c r="M20" s="11">
         <v>218938</v>
       </c>
-      <c r="I20" s="11">
+      <c r="N20" s="11">
         <v>285848</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>3965</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>5357</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17">
-        <v>0</v>
+        <v>403790</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>435113</v>
       </c>
       <c r="G22" s="17">
+        <v>399725</v>
+      </c>
+      <c r="H22" s="17">
+        <v>523320</v>
+      </c>
+      <c r="I22" s="17">
+        <v>380435</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>740734</v>
+      </c>
+      <c r="L22" s="17">
         <v>431737</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>260630</v>
       </c>
-      <c r="I22" s="17">
+      <c r="N22" s="17">
         <v>365411</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1062,10 +1307,15 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1084,76 +1334,136 @@
       <c r="I24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>957958</v>
       </c>
       <c r="F27" s="15">
-        <v>0</v>
+        <v>975564</v>
       </c>
       <c r="G27" s="15">
+        <v>870998</v>
+      </c>
+      <c r="H27" s="15">
+        <v>857100</v>
+      </c>
+      <c r="I27" s="15">
+        <v>649440</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1322435</v>
+      </c>
+      <c r="L27" s="15">
         <v>865028</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>916126</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>1102171</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1162,8 +1472,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1172,8 +1487,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1182,10 +1502,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1204,8 +1529,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1214,10 +1554,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1226,152 +1571,247 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
+      <c r="E34" s="11">
+        <v>275067</v>
+      </c>
+      <c r="F34" s="11">
+        <v>261174</v>
       </c>
       <c r="G34" s="11">
+        <v>1369441</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11">
+        <v>902973</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11">
+        <v>5803507</v>
+      </c>
+      <c r="L34" s="11">
         <v>1817350</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>2320802</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>3179513</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>13</v>
+      <c r="E35" s="13">
+        <v>15328308</v>
+      </c>
+      <c r="F35" s="13">
+        <v>25815930</v>
       </c>
       <c r="G35" s="13">
+        <v>23441234</v>
+      </c>
+      <c r="H35" s="13">
+        <v>19915831</v>
+      </c>
+      <c r="I35" s="13">
+        <v>17078610</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="13">
+        <v>33718594</v>
+      </c>
+      <c r="L35" s="13">
         <v>22750121</v>
       </c>
-      <c r="H35" s="13">
+      <c r="M35" s="13">
         <v>31902954</v>
       </c>
-      <c r="I35" s="13">
+      <c r="N35" s="13">
         <v>32369317</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>45674</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1427302</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
         <v>1499746</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>2692731</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>22399556</v>
+      </c>
+      <c r="F37" s="13">
+        <v>26631214</v>
       </c>
       <c r="G37" s="13">
+        <v>23937159</v>
+      </c>
+      <c r="H37" s="13">
+        <v>23919258</v>
+      </c>
+      <c r="I37" s="13">
+        <v>16934074</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13">
+        <v>26096193</v>
+      </c>
+      <c r="L37" s="13">
         <v>34310012</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>42531611</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>48609588</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
+      <c r="F38" s="11">
+        <v>0</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>38048605</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>52708318</v>
       </c>
       <c r="G39" s="15">
+        <v>48747834</v>
+      </c>
+      <c r="H39" s="15">
+        <v>43835089</v>
+      </c>
+      <c r="I39" s="15">
+        <v>36342959</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>65618294</v>
+      </c>
+      <c r="L39" s="15">
         <v>60377229</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>79448098</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>84158418</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1380,128 +1820,208 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
+      <c r="E41" s="11">
+        <v>7719010</v>
+      </c>
+      <c r="F41" s="11">
+        <v>13892940</v>
       </c>
       <c r="G41" s="11">
+        <v>17384040</v>
+      </c>
+      <c r="H41" s="11">
+        <v>27841337</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45134716</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="11">
+        <v>58924928</v>
+      </c>
+      <c r="L41" s="11">
         <v>42625800</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>4856793</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>6400655</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="13">
-        <v>0</v>
-      </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
+        <v>18</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="13">
+        <v>1876712</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13">
         <v>1987632</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
+      <c r="E43" s="11">
+        <v>17970226</v>
+      </c>
+      <c r="F43" s="11">
+        <v>29676632</v>
       </c>
       <c r="G43" s="11">
+        <v>31538730</v>
+      </c>
+      <c r="H43" s="11">
+        <v>37391398</v>
+      </c>
+      <c r="I43" s="11">
+        <v>11338315</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="11">
+        <v>45155603</v>
+      </c>
+      <c r="L43" s="11">
         <v>24638176</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>25909207</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>36464239</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>0</v>
+        <v>287401</v>
       </c>
       <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>400251</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>0</v>
+        <v>25976637</v>
       </c>
       <c r="F45" s="17">
-        <v>0</v>
+        <v>43969823</v>
       </c>
       <c r="G45" s="17">
+        <v>48922770</v>
+      </c>
+      <c r="H45" s="17">
+        <v>65232735</v>
+      </c>
+      <c r="I45" s="17">
+        <v>56473031</v>
+      </c>
+      <c r="J45" s="17">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
+        <v>105957243</v>
+      </c>
+      <c r="L45" s="17">
         <v>67263976</v>
       </c>
-      <c r="H45" s="17">
+      <c r="M45" s="17">
         <v>30766000</v>
       </c>
-      <c r="I45" s="17">
+      <c r="N45" s="17">
         <v>44852526</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -1510,10 +2030,15 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -1532,78 +2057,138 @@
       <c r="I47" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17">
-        <v>0</v>
+      <c r="E49" s="17">
+        <v>0</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="17">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>0</v>
+        <v>64025242</v>
       </c>
       <c r="F50" s="15">
-        <v>0</v>
+        <v>96678141</v>
       </c>
       <c r="G50" s="15">
+        <v>97670604</v>
+      </c>
+      <c r="H50" s="15">
+        <v>109067824</v>
+      </c>
+      <c r="I50" s="15">
+        <v>92815990</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <v>171575537</v>
+      </c>
+      <c r="L50" s="15">
         <v>127641205</v>
       </c>
-      <c r="H50" s="15">
+      <c r="M50" s="15">
         <v>110214098</v>
       </c>
-      <c r="I50" s="15">
+      <c r="N50" s="15">
         <v>129010944</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1612,8 +2197,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1622,8 +2212,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1632,10 +2227,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1654,8 +2254,23 @@
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1664,10 +2279,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1676,130 +2296,210 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>16495772</v>
+      </c>
+      <c r="F57" s="11">
+        <v>24220903</v>
+      </c>
+      <c r="G57" s="11">
+        <v>24703099</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="11">
+        <v>35944946</v>
+      </c>
+      <c r="J57" s="11">
         <v>35296117</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>37668722</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>36341912</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>27976638</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>29111621</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>68187030</v>
+      </c>
+      <c r="F58" s="13">
+        <v>100646116</v>
+      </c>
+      <c r="G58" s="13">
+        <v>119882548</v>
+      </c>
+      <c r="H58" s="13">
+        <v>156857090</v>
+      </c>
+      <c r="I58" s="13">
+        <v>166828918</v>
+      </c>
+      <c r="J58" s="13">
         <v>156232785</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>148585881</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>164136366</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>139570800</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>123944865</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>21362956</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="11">
+        <v>82608056</v>
+      </c>
+      <c r="J59" s="11">
         <v>84588426</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="K59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="11">
         <v>95470495</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>84174148</v>
       </c>
-      <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>72127036</v>
+      </c>
+      <c r="F60" s="13">
+        <v>97490954</v>
+      </c>
+      <c r="G60" s="13">
+        <v>108656113</v>
+      </c>
+      <c r="H60" s="13">
+        <v>115657012</v>
+      </c>
+      <c r="I60" s="13">
+        <v>136307887</v>
+      </c>
+      <c r="J60" s="13">
         <v>133705189</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>130023283</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>149845010</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>136331501</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>132674245</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1808,104 +2508,169 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>60273687</v>
+      </c>
+      <c r="F63" s="11">
+        <v>99593110</v>
+      </c>
+      <c r="G63" s="11">
+        <v>128737290</v>
+      </c>
+      <c r="H63" s="11">
+        <v>130375077</v>
+      </c>
+      <c r="I63" s="11">
+        <v>155415618</v>
+      </c>
+      <c r="J63" s="11">
         <v>160281903</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>149145316</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>161246368</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>116492205</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>117258180</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13">
+      <c r="E64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="13">
         <v>79874894</v>
       </c>
-      <c r="F64" s="13">
+      <c r="K64" s="13">
         <v>87292990</v>
       </c>
-      <c r="G64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="13">
+      <c r="L64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="13">
         <v>79578492</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>66125597</v>
+      </c>
+      <c r="F65" s="11">
+        <v>102241901</v>
+      </c>
+      <c r="G65" s="11">
+        <v>119153463</v>
+      </c>
+      <c r="H65" s="11">
+        <v>120706190</v>
+      </c>
+      <c r="I65" s="11">
+        <v>125950490</v>
+      </c>
+      <c r="J65" s="11">
         <v>148811196</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>139304222</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>147194647</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>118340384</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>127565136</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>13</v>
+      <c r="E66" s="13">
+        <v>72484489</v>
+      </c>
+      <c r="F66" s="13">
+        <v>74715512</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1914,8 +2679,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1924,8 +2694,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1934,10 +2709,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -1956,8 +2736,23 @@
       <c r="I70" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1966,10 +2761,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -1978,152 +2778,247 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>-487142</v>
+      </c>
+      <c r="F73" s="11">
+        <v>-572196</v>
+      </c>
+      <c r="G73" s="11">
+        <v>-755124</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="11">
+        <v>-675453</v>
+      </c>
+      <c r="J73" s="11">
         <v>-2424058</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>-4523319</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>-1689863</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>-3034977</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>-3767191</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>-9401597</v>
+      </c>
+      <c r="F74" s="13">
+        <v>-14250125</v>
+      </c>
+      <c r="G74" s="13">
+        <v>-14190749</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-8869816</v>
+      </c>
+      <c r="I74" s="13">
+        <v>-9419995</v>
+      </c>
+      <c r="J74" s="13">
         <v>-16633831</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>-25774202</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>-14731163</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>-26193343</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>-29627668</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>-43902</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="11">
+        <v>-806126</v>
+      </c>
+      <c r="J75" s="11">
         <v>-1303499</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>-111541</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>-939008</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>-2077086</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>39615</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
+        <v>-12964322</v>
+      </c>
+      <c r="F76" s="13">
+        <v>-16268251</v>
+      </c>
+      <c r="G76" s="13">
+        <v>-15996794</v>
+      </c>
+      <c r="H76" s="13">
+        <v>-14439742</v>
+      </c>
+      <c r="I76" s="13">
+        <v>-11910332</v>
+      </c>
+      <c r="J76" s="13">
         <v>-18875935</v>
       </c>
-      <c r="F76" s="13">
+      <c r="K76" s="13">
         <v>-26399716</v>
       </c>
-      <c r="G76" s="13">
+      <c r="L76" s="13">
         <v>-25371749</v>
       </c>
-      <c r="H76" s="13">
+      <c r="M76" s="13">
         <v>-35727926</v>
       </c>
-      <c r="I76" s="13">
+      <c r="N76" s="13">
         <v>-42035687</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>13</v>
+        <v>361</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
+        <v>-22896602</v>
+      </c>
+      <c r="F78" s="15">
+        <v>-31090572</v>
+      </c>
+      <c r="G78" s="15">
+        <v>-30942667</v>
+      </c>
+      <c r="H78" s="15">
+        <v>-23309558</v>
+      </c>
+      <c r="I78" s="15">
+        <v>-22811906</v>
+      </c>
+      <c r="J78" s="15">
         <v>-39237323</v>
       </c>
-      <c r="F78" s="15">
+      <c r="K78" s="15">
         <v>-56808778</v>
       </c>
-      <c r="G78" s="15">
+      <c r="L78" s="15">
         <v>-42731783</v>
       </c>
-      <c r="H78" s="15">
+      <c r="M78" s="15">
         <v>-67033332</v>
       </c>
-      <c r="I78" s="15">
+      <c r="N78" s="15">
         <v>-75390931</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2132,128 +3027,208 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>-5072551</v>
+      </c>
+      <c r="F80" s="11">
+        <v>-7327365</v>
+      </c>
+      <c r="G80" s="11">
+        <v>-8746378</v>
+      </c>
+      <c r="H80" s="11">
+        <v>-14918226</v>
+      </c>
+      <c r="I80" s="11">
+        <v>-25272589</v>
+      </c>
+      <c r="J80" s="11">
         <v>-21758346</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>-45013306</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>-28095679</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>-6014473</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>-6382395</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13">
+      <c r="E81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="13">
         <v>-869189</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>-1270465</v>
       </c>
-      <c r="G81" s="13">
-        <v>0</v>
-      </c>
-      <c r="H81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13">
+      <c r="L81" s="13">
+        <v>0</v>
+      </c>
+      <c r="M81" s="13">
+        <v>0</v>
+      </c>
+      <c r="N81" s="13">
         <v>-1558577</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>-10973027</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-15779833</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-17209173</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-21628449</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-10193734</v>
+      </c>
+      <c r="J82" s="11">
         <v>-19008203</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>-35650044</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-17741378</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>-25894024</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>-30758029</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>0</v>
+        <v>-186012</v>
       </c>
       <c r="F83" s="13">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-262250</v>
+      </c>
+      <c r="G83" s="13">
+        <v>-76315</v>
+      </c>
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
+        <v>0</v>
+      </c>
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <v>0</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="17">
+        <v>-16231590</v>
+      </c>
+      <c r="F84" s="17">
+        <v>-23369448</v>
+      </c>
+      <c r="G84" s="17">
+        <v>-26031866</v>
+      </c>
+      <c r="H84" s="17">
+        <v>-36546675</v>
+      </c>
+      <c r="I84" s="17">
+        <v>-35466323</v>
+      </c>
+      <c r="J84" s="17">
         <v>-41635738</v>
       </c>
-      <c r="F84" s="17">
+      <c r="K84" s="17">
         <v>-81933815</v>
       </c>
-      <c r="G84" s="17">
+      <c r="L84" s="17">
         <v>-45837057</v>
       </c>
-      <c r="H84" s="17">
+      <c r="M84" s="17">
         <v>-31908497</v>
       </c>
-      <c r="I84" s="17">
+      <c r="N84" s="17">
         <v>-38699001</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -2262,10 +3237,15 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -2284,37 +3264,67 @@
       <c r="I86" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="17">
+        <v>0</v>
+      </c>
+      <c r="K86" s="17">
+        <v>0</v>
+      </c>
+      <c r="L86" s="17">
+        <v>0</v>
+      </c>
+      <c r="M86" s="17">
+        <v>0</v>
+      </c>
+      <c r="N86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>13</v>
+      <c r="E87" s="15">
+        <v>0</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17">
@@ -2323,39 +3333,69 @@
       <c r="F88" s="17">
         <v>0</v>
       </c>
-      <c r="G88" s="17">
-        <v>0</v>
-      </c>
-      <c r="H88" s="17">
-        <v>0</v>
+      <c r="G88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I88" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="17">
+        <v>0</v>
+      </c>
+      <c r="K88" s="17">
+        <v>0</v>
+      </c>
+      <c r="L88" s="17">
+        <v>0</v>
+      </c>
+      <c r="M88" s="17">
+        <v>0</v>
+      </c>
+      <c r="N88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
+        <v>-39128192</v>
+      </c>
+      <c r="F89" s="15">
+        <v>-54460020</v>
+      </c>
+      <c r="G89" s="15">
+        <v>-56974533</v>
+      </c>
+      <c r="H89" s="15">
+        <v>-59856233</v>
+      </c>
+      <c r="I89" s="15">
+        <v>-58278229</v>
+      </c>
+      <c r="J89" s="15">
         <v>-80873061</v>
       </c>
-      <c r="F89" s="15">
+      <c r="K89" s="15">
         <v>-138742593</v>
       </c>
-      <c r="G89" s="15">
+      <c r="L89" s="15">
         <v>-88568840</v>
       </c>
-      <c r="H89" s="15">
+      <c r="M89" s="15">
         <v>-98941829</v>
       </c>
-      <c r="I89" s="15">
+      <c r="N89" s="15">
         <v>-114089932</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2364,8 +3404,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2374,8 +3419,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2384,10 +3434,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2406,8 +3461,23 @@
       <c r="I93" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2416,10 +3486,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -2428,152 +3503,247 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>-212075</v>
+      </c>
+      <c r="F96" s="11">
+        <v>-311022</v>
+      </c>
+      <c r="G96" s="11">
+        <v>614317</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11">
+        <v>227520</v>
+      </c>
+      <c r="J96" s="11">
         <v>499837</v>
       </c>
-      <c r="F96" s="11">
+      <c r="K96" s="11">
         <v>1280188</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>127487</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>-714175</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>-587678</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13">
+        <v>5926711</v>
+      </c>
+      <c r="F97" s="13">
+        <v>11565805</v>
+      </c>
+      <c r="G97" s="13">
+        <v>9250485</v>
+      </c>
+      <c r="H97" s="13">
+        <v>11046015</v>
+      </c>
+      <c r="I97" s="13">
+        <v>7658615</v>
+      </c>
+      <c r="J97" s="13">
         <v>12187837</v>
       </c>
-      <c r="F97" s="13">
+      <c r="K97" s="13">
         <v>7944392</v>
       </c>
-      <c r="G97" s="13">
+      <c r="L97" s="13">
         <v>8018958</v>
       </c>
-      <c r="H97" s="13">
+      <c r="M97" s="13">
         <v>5709611</v>
       </c>
-      <c r="I97" s="13">
+      <c r="N97" s="13">
         <v>2741649</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>1772</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="11">
+        <v>621176</v>
+      </c>
+      <c r="J98" s="11">
         <v>858412</v>
       </c>
-      <c r="F98" s="11">
+      <c r="K98" s="11">
         <v>-111541</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>560738</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>615645</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>39615</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
+        <v>9435234</v>
+      </c>
+      <c r="F99" s="13">
+        <v>10362963</v>
+      </c>
+      <c r="G99" s="13">
+        <v>7940365</v>
+      </c>
+      <c r="H99" s="13">
+        <v>9479516</v>
+      </c>
+      <c r="I99" s="13">
+        <v>5023742</v>
+      </c>
+      <c r="J99" s="13">
         <v>8062719</v>
       </c>
-      <c r="F99" s="13">
+      <c r="K99" s="13">
         <v>-303523</v>
       </c>
-      <c r="G99" s="13">
+      <c r="L99" s="13">
         <v>8938263</v>
       </c>
-      <c r="H99" s="13">
+      <c r="M99" s="13">
         <v>6803685</v>
       </c>
-      <c r="I99" s="13">
+      <c r="N99" s="13">
         <v>6573901</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>0</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>13</v>
+        <v>361</v>
+      </c>
+      <c r="F100" s="11">
+        <v>0</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
+        <v>15152003</v>
+      </c>
+      <c r="F101" s="15">
+        <v>21617746</v>
+      </c>
+      <c r="G101" s="15">
+        <v>17805167</v>
+      </c>
+      <c r="H101" s="15">
+        <v>20525531</v>
+      </c>
+      <c r="I101" s="15">
+        <v>13531053</v>
+      </c>
+      <c r="J101" s="15">
         <v>21608805</v>
       </c>
-      <c r="F101" s="15">
+      <c r="K101" s="15">
         <v>8809516</v>
       </c>
-      <c r="G101" s="15">
+      <c r="L101" s="15">
         <v>17645446</v>
       </c>
-      <c r="H101" s="15">
+      <c r="M101" s="15">
         <v>12414766</v>
       </c>
-      <c r="I101" s="15">
+      <c r="N101" s="15">
         <v>8767487</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2582,128 +3752,208 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
+        <v>2646459</v>
+      </c>
+      <c r="F103" s="11">
+        <v>6565575</v>
+      </c>
+      <c r="G103" s="11">
+        <v>8637662</v>
+      </c>
+      <c r="H103" s="11">
+        <v>12923111</v>
+      </c>
+      <c r="I103" s="11">
+        <v>19862127</v>
+      </c>
+      <c r="J103" s="11">
         <v>15120917</v>
       </c>
-      <c r="F103" s="11">
+      <c r="K103" s="11">
         <v>13911622</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>14530121</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>-1157680</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>18260</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="13">
+      <c r="E104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="13">
         <v>540523</v>
       </c>
-      <c r="F104" s="13">
+      <c r="K104" s="13">
         <v>606247</v>
       </c>
-      <c r="G104" s="13">
-        <v>0</v>
-      </c>
-      <c r="H104" s="13">
-        <v>0</v>
-      </c>
-      <c r="I104" s="13">
+      <c r="L104" s="13">
+        <v>0</v>
+      </c>
+      <c r="M104" s="13">
+        <v>0</v>
+      </c>
+      <c r="N104" s="13">
         <v>429055</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
+        <v>6997199</v>
+      </c>
+      <c r="F105" s="11">
+        <v>13896799</v>
+      </c>
+      <c r="G105" s="11">
+        <v>14329557</v>
+      </c>
+      <c r="H105" s="11">
+        <v>15762949</v>
+      </c>
+      <c r="I105" s="11">
+        <v>1144581</v>
+      </c>
+      <c r="J105" s="11">
         <v>10563409</v>
       </c>
-      <c r="F105" s="11">
+      <c r="K105" s="11">
         <v>9505559</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>6896798</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>15183</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>5706210</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>0</v>
+        <v>101389</v>
       </c>
       <c r="F106" s="13">
-        <v>0</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>138001</v>
+      </c>
+      <c r="G106" s="13">
+        <v>-76315</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+      <c r="J106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="13">
+        <v>0</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17">
+        <v>9745047</v>
+      </c>
+      <c r="F107" s="17">
+        <v>20600375</v>
+      </c>
+      <c r="G107" s="17">
+        <v>22890904</v>
+      </c>
+      <c r="H107" s="17">
+        <v>28686060</v>
+      </c>
+      <c r="I107" s="17">
+        <v>21006708</v>
+      </c>
+      <c r="J107" s="17">
         <v>26224849</v>
       </c>
-      <c r="F107" s="17">
+      <c r="K107" s="17">
         <v>24023428</v>
       </c>
-      <c r="G107" s="17">
+      <c r="L107" s="17">
         <v>21426919</v>
       </c>
-      <c r="H107" s="17">
+      <c r="M107" s="17">
         <v>-1142497</v>
       </c>
-      <c r="I107" s="17">
+      <c r="N107" s="17">
         <v>6153525</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -2712,10 +3962,15 @@
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -2734,26 +3989,56 @@
       <c r="I109" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="17">
+        <v>0</v>
+      </c>
+      <c r="K109" s="17">
+        <v>0</v>
+      </c>
+      <c r="L109" s="17">
+        <v>0</v>
+      </c>
+      <c r="M109" s="17">
+        <v>0</v>
+      </c>
+      <c r="N109" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15">
+        <v>24897050</v>
+      </c>
+      <c r="F110" s="15">
+        <v>42218121</v>
+      </c>
+      <c r="G110" s="15">
+        <v>40696071</v>
+      </c>
+      <c r="H110" s="15">
+        <v>49211591</v>
+      </c>
+      <c r="I110" s="15">
+        <v>34537761</v>
+      </c>
+      <c r="J110" s="15">
         <v>47833654</v>
       </c>
-      <c r="F110" s="15">
+      <c r="K110" s="15">
         <v>32832944</v>
       </c>
-      <c r="G110" s="15">
+      <c r="L110" s="15">
         <v>39072365</v>
       </c>
-      <c r="H110" s="15">
+      <c r="M110" s="15">
         <v>11272269</v>
       </c>
-      <c r="I110" s="15">
+      <c r="N110" s="15">
         <v>14921012</v>
       </c>
     </row>

--- a/database/industries/folad/fakhouz/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3017FBA5-3FFF-461A-902D-B39A7F9B37D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ACC925-D6DE-4CEE-957F-4D41B7452208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -667,12 +667,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -687,7 +687,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -736,7 +736,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -785,7 +785,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -837,7 +837,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -877,8 +877,8 @@
       <c r="I11" s="11">
         <v>25121</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11">
+        <v>82839</v>
       </c>
       <c r="K11" s="11">
         <v>154067</v>
@@ -893,7 +893,7 @@
         <v>109218</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -916,8 +916,8 @@
       <c r="I12" s="13">
         <v>102372</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13">
+        <v>184479</v>
       </c>
       <c r="K12" s="13">
         <v>226930</v>
@@ -932,7 +932,7 @@
         <v>261159</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -955,8 +955,8 @@
       <c r="I13" s="11">
         <v>17278</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11">
+        <v>25558</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="I14" s="13">
         <v>124234</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13">
+        <v>201478</v>
       </c>
       <c r="K14" s="13">
         <v>200704</v>
@@ -1010,7 +1010,7 @@
         <v>366383</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>269005</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>494354</v>
       </c>
       <c r="K16" s="15">
         <v>581701</v>
@@ -1086,7 +1086,7 @@
         <v>736760</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1126,8 +1126,8 @@
       <c r="I18" s="11">
         <v>290413</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>18</v>
+      <c r="J18" s="11">
+        <v>230090</v>
       </c>
       <c r="K18" s="11">
         <v>395084</v>
@@ -1142,7 +1142,7 @@
         <v>54586</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1165,8 +1165,8 @@
       <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>18</v>
+      <c r="J19" s="13">
+        <v>17649</v>
       </c>
       <c r="K19" s="13">
         <v>21499</v>
@@ -1181,7 +1181,7 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
@@ -1204,8 +1204,8 @@
       <c r="I20" s="11">
         <v>90022</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>18</v>
+      <c r="J20" s="11">
+        <v>198719</v>
       </c>
       <c r="K20" s="11">
         <v>324151</v>
@@ -1220,7 +1220,7 @@
         <v>285848</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>380435</v>
       </c>
       <c r="J22" s="17">
-        <v>0</v>
+        <v>446458</v>
       </c>
       <c r="K22" s="17">
         <v>740734</v>
@@ -1296,7 +1296,7 @@
         <v>365411</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
@@ -1410,8 +1410,8 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>18</v>
+      <c r="J26" s="17">
+        <v>0</v>
       </c>
       <c r="K26" s="17">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>649440</v>
       </c>
       <c r="J27" s="15">
-        <v>0</v>
+        <v>940812</v>
       </c>
       <c r="K27" s="15">
         <v>1322435</v>
@@ -1463,7 +1463,7 @@
         <v>1102171</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1478,7 +1478,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1493,7 +1493,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1560,7 +1560,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1600,8 +1600,8 @@
       <c r="I34" s="11">
         <v>902973</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>18</v>
+      <c r="J34" s="11">
+        <v>2923895</v>
       </c>
       <c r="K34" s="11">
         <v>5803507</v>
@@ -1616,7 +1616,7 @@
         <v>3179513</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1639,8 @@
       <c r="I35" s="13">
         <v>17078610</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>18</v>
+      <c r="J35" s="13">
+        <v>28821668</v>
       </c>
       <c r="K35" s="13">
         <v>33718594</v>
@@ -1655,7 +1655,7 @@
         <v>32369317</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1678,8 +1678,8 @@
       <c r="I36" s="11">
         <v>1427302</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>18</v>
+      <c r="J36" s="11">
+        <v>2161912</v>
       </c>
       <c r="K36" s="11">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
@@ -1717,8 +1717,8 @@
       <c r="I37" s="13">
         <v>16934074</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>18</v>
+      <c r="J37" s="13">
+        <v>26938654</v>
       </c>
       <c r="K37" s="13">
         <v>26096193</v>
@@ -1733,7 +1733,7 @@
         <v>48609588</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>23</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>36342959</v>
       </c>
       <c r="J39" s="15">
-        <v>0</v>
+        <v>60846129</v>
       </c>
       <c r="K39" s="15">
         <v>65618294</v>
@@ -1809,7 +1809,7 @@
         <v>84158418</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -1849,8 +1849,8 @@
       <c r="I41" s="11">
         <v>45134716</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>18</v>
+      <c r="J41" s="11">
+        <v>36879263</v>
       </c>
       <c r="K41" s="11">
         <v>58924928</v>
@@ -1865,7 +1865,7 @@
         <v>6400655</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>20</v>
       </c>
@@ -1888,8 +1888,8 @@
       <c r="I42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>18</v>
+      <c r="J42" s="13">
+        <v>1409712</v>
       </c>
       <c r="K42" s="13">
         <v>1876712</v>
@@ -1904,7 +1904,7 @@
         <v>1987632</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>21</v>
       </c>
@@ -1927,8 +1927,8 @@
       <c r="I43" s="11">
         <v>11338315</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>18</v>
+      <c r="J43" s="11">
+        <v>29571612</v>
       </c>
       <c r="K43" s="11">
         <v>45155603</v>
@@ -1943,7 +1943,7 @@
         <v>36464239</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>22</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>56473031</v>
       </c>
       <c r="J45" s="17">
-        <v>0</v>
+        <v>67860587</v>
       </c>
       <c r="K45" s="17">
         <v>105957243</v>
@@ -2019,7 +2019,7 @@
         <v>44852526</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>36</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>27</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>28</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>30</v>
       </c>
@@ -2135,8 +2135,8 @@
       <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="J49" s="17" t="s">
-        <v>18</v>
+      <c r="J49" s="17">
+        <v>0</v>
       </c>
       <c r="K49" s="17">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>31</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>92815990</v>
       </c>
       <c r="J50" s="15">
-        <v>0</v>
+        <v>128706716</v>
       </c>
       <c r="K50" s="15">
         <v>171575537</v>
@@ -2188,7 +2188,7 @@
         <v>129010944</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2203,7 +2203,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2218,7 +2218,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2233,7 +2233,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2285,7 +2285,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>29111621</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>123944865</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>20</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>82608056</v>
       </c>
       <c r="J59" s="11">
-        <v>84588426</v>
+        <v>84588465</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>18</v>
@@ -2419,7 +2419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>21</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>132674245</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>22</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>117258180</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>20</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>79578492</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>127565136</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>22</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2685,7 +2685,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2700,7 +2700,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2767,7 +2767,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>42</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>-675453</v>
       </c>
       <c r="J73" s="11">
-        <v>-2424058</v>
+        <v>-3099511</v>
       </c>
       <c r="K73" s="11">
         <v>-4523319</v>
@@ -2823,7 +2823,7 @@
         <v>-3767191</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>19</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>-9419995</v>
       </c>
       <c r="J74" s="13">
-        <v>-16633831</v>
+        <v>-34923642</v>
       </c>
       <c r="K74" s="13">
         <v>-25774202</v>
@@ -2862,7 +2862,7 @@
         <v>-29627668</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>-806126</v>
       </c>
       <c r="J75" s="11">
-        <v>-1303499</v>
+        <v>-2109625</v>
       </c>
       <c r="K75" s="11">
         <v>-111541</v>
@@ -2901,7 +2901,7 @@
         <v>39615</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>21</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>-11910332</v>
       </c>
       <c r="J76" s="13">
-        <v>-18875935</v>
+        <v>-45226009</v>
       </c>
       <c r="K76" s="13">
         <v>-26399716</v>
@@ -2940,7 +2940,7 @@
         <v>-42035687</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>43</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>-22811906</v>
       </c>
       <c r="J78" s="15">
-        <v>-39237323</v>
+        <v>-85358787</v>
       </c>
       <c r="K78" s="15">
         <v>-56808778</v>
@@ -3016,7 +3016,7 @@
         <v>-75390931</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>44</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>19</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>-25272589</v>
       </c>
       <c r="J80" s="11">
-        <v>-21758346</v>
+        <v>-61949161</v>
       </c>
       <c r="K80" s="11">
         <v>-45013306</v>
@@ -3072,7 +3072,7 @@
         <v>-6382395</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>20</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>-1558577</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>21</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>-10193734</v>
       </c>
       <c r="J82" s="11">
-        <v>-19008203</v>
+        <v>-50830386</v>
       </c>
       <c r="K82" s="11">
         <v>-35650044</v>
@@ -3150,7 +3150,7 @@
         <v>-30758029</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>22</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>45</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>-35466323</v>
       </c>
       <c r="J84" s="17">
-        <v>-41635738</v>
+        <v>-113648736</v>
       </c>
       <c r="K84" s="17">
         <v>-81933815</v>
@@ -3226,7 +3226,7 @@
         <v>-38699001</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>46</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>47</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>28</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="16" t="s">
         <v>30</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>-58278229</v>
       </c>
       <c r="J89" s="15">
-        <v>-80873061</v>
+        <v>-199007523</v>
       </c>
       <c r="K89" s="15">
         <v>-138742593</v>
@@ -3395,7 +3395,7 @@
         <v>-114089932</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3410,7 +3410,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3425,7 +3425,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3440,7 +3440,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>48</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3492,7 +3492,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>49</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>16</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>227520</v>
       </c>
       <c r="J96" s="11">
-        <v>499837</v>
+        <v>727357</v>
       </c>
       <c r="K96" s="11">
         <v>1280188</v>
@@ -3548,7 +3548,7 @@
         <v>-587678</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>19</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>7658615</v>
       </c>
       <c r="J97" s="13">
-        <v>12187837</v>
+        <v>30892467</v>
       </c>
       <c r="K97" s="13">
         <v>7944392</v>
@@ -3587,7 +3587,7 @@
         <v>2741649</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>621176</v>
       </c>
       <c r="J98" s="11">
-        <v>858412</v>
+        <v>1479588</v>
       </c>
       <c r="K98" s="11">
         <v>-111541</v>
@@ -3626,7 +3626,7 @@
         <v>39615</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>5023742</v>
       </c>
       <c r="J99" s="13">
-        <v>8062719</v>
+        <v>22565977</v>
       </c>
       <c r="K99" s="13">
         <v>-303523</v>
@@ -3665,7 +3665,7 @@
         <v>6573901</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>22</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>50</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>13531053</v>
       </c>
       <c r="J101" s="15">
-        <v>21608805</v>
+        <v>55665389</v>
       </c>
       <c r="K101" s="15">
         <v>8809516</v>
@@ -3741,7 +3741,7 @@
         <v>8767487</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>51</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>19</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>19862127</v>
       </c>
       <c r="J103" s="11">
-        <v>15120917</v>
+        <v>47906155</v>
       </c>
       <c r="K103" s="11">
         <v>13911622</v>
@@ -3797,7 +3797,7 @@
         <v>18260</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>20</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>429055</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>21</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1144581</v>
       </c>
       <c r="J105" s="11">
-        <v>10563409</v>
+        <v>27470939</v>
       </c>
       <c r="K105" s="11">
         <v>9505559</v>
@@ -3875,7 +3875,7 @@
         <v>5706210</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>22</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>52</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>21006708</v>
       </c>
       <c r="J107" s="17">
-        <v>26224849</v>
+        <v>75917617</v>
       </c>
       <c r="K107" s="17">
         <v>24023428</v>
@@ -3951,7 +3951,7 @@
         <v>6153525</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>53</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="16" t="s">
         <v>54</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>31</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>34537761</v>
       </c>
       <c r="J110" s="15">
-        <v>47833654</v>
+        <v>131583006</v>
       </c>
       <c r="K110" s="15">
         <v>32832944</v>

--- a/database/industries/folad/fakhouz/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ACC925-D6DE-4CEE-957F-4D41B7452208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C9F8D-5DDE-406E-AC2B-B2135EAE134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -877,8 +877,8 @@
       <c r="I11" s="11">
         <v>25121</v>
       </c>
-      <c r="J11" s="11">
-        <v>82839</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="11">
         <v>154067</v>
@@ -916,8 +916,8 @@
       <c r="I12" s="13">
         <v>102372</v>
       </c>
-      <c r="J12" s="13">
-        <v>184479</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="13">
         <v>226930</v>
@@ -955,8 +955,8 @@
       <c r="I13" s="11">
         <v>17278</v>
       </c>
-      <c r="J13" s="11">
-        <v>25558</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -994,8 +994,8 @@
       <c r="I14" s="13">
         <v>124234</v>
       </c>
-      <c r="J14" s="13">
-        <v>201478</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K14" s="13">
         <v>200704</v>
@@ -1071,7 +1071,7 @@
         <v>269005</v>
       </c>
       <c r="J16" s="15">
-        <v>494354</v>
+        <v>0</v>
       </c>
       <c r="K16" s="15">
         <v>581701</v>
@@ -1126,8 +1126,8 @@
       <c r="I18" s="11">
         <v>290413</v>
       </c>
-      <c r="J18" s="11">
-        <v>230090</v>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="11">
         <v>395084</v>
@@ -1165,8 +1165,8 @@
       <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="13">
-        <v>17649</v>
+      <c r="J19" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K19" s="13">
         <v>21499</v>
@@ -1204,8 +1204,8 @@
       <c r="I20" s="11">
         <v>90022</v>
       </c>
-      <c r="J20" s="11">
-        <v>198719</v>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K20" s="11">
         <v>324151</v>
@@ -1281,7 +1281,7 @@
         <v>380435</v>
       </c>
       <c r="J22" s="17">
-        <v>446458</v>
+        <v>0</v>
       </c>
       <c r="K22" s="17">
         <v>740734</v>
@@ -1410,8 +1410,8 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-      <c r="J26" s="17">
-        <v>0</v>
+      <c r="J26" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="K26" s="17">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>649440</v>
       </c>
       <c r="J27" s="15">
-        <v>940812</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
         <v>1322435</v>
@@ -1600,8 +1600,8 @@
       <c r="I34" s="11">
         <v>902973</v>
       </c>
-      <c r="J34" s="11">
-        <v>2923895</v>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K34" s="11">
         <v>5803507</v>
@@ -1639,8 +1639,8 @@
       <c r="I35" s="13">
         <v>17078610</v>
       </c>
-      <c r="J35" s="13">
-        <v>28821668</v>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K35" s="13">
         <v>33718594</v>
@@ -1678,8 +1678,8 @@
       <c r="I36" s="11">
         <v>1427302</v>
       </c>
-      <c r="J36" s="11">
-        <v>2161912</v>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K36" s="11">
         <v>0</v>
@@ -1717,8 +1717,8 @@
       <c r="I37" s="13">
         <v>16934074</v>
       </c>
-      <c r="J37" s="13">
-        <v>26938654</v>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K37" s="13">
         <v>26096193</v>
@@ -1794,7 +1794,7 @@
         <v>36342959</v>
       </c>
       <c r="J39" s="15">
-        <v>60846129</v>
+        <v>0</v>
       </c>
       <c r="K39" s="15">
         <v>65618294</v>
@@ -1849,8 +1849,8 @@
       <c r="I41" s="11">
         <v>45134716</v>
       </c>
-      <c r="J41" s="11">
-        <v>36879263</v>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K41" s="11">
         <v>58924928</v>
@@ -1888,8 +1888,8 @@
       <c r="I42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="13">
-        <v>1409712</v>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K42" s="13">
         <v>1876712</v>
@@ -1927,8 +1927,8 @@
       <c r="I43" s="11">
         <v>11338315</v>
       </c>
-      <c r="J43" s="11">
-        <v>29571612</v>
+      <c r="J43" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K43" s="11">
         <v>45155603</v>
@@ -2004,7 +2004,7 @@
         <v>56473031</v>
       </c>
       <c r="J45" s="17">
-        <v>67860587</v>
+        <v>0</v>
       </c>
       <c r="K45" s="17">
         <v>105957243</v>
@@ -2135,8 +2135,8 @@
       <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="J49" s="17">
-        <v>0</v>
+      <c r="J49" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="K49" s="17">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>92815990</v>
       </c>
       <c r="J50" s="15">
-        <v>128706716</v>
+        <v>0</v>
       </c>
       <c r="K50" s="15">
         <v>171575537</v>
@@ -2404,7 +2404,7 @@
         <v>82608056</v>
       </c>
       <c r="J59" s="11">
-        <v>84588465</v>
+        <v>84588426</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>18</v>
@@ -2808,7 +2808,7 @@
         <v>-675453</v>
       </c>
       <c r="J73" s="11">
-        <v>-3099511</v>
+        <v>-2424058</v>
       </c>
       <c r="K73" s="11">
         <v>-4523319</v>
@@ -2847,7 +2847,7 @@
         <v>-9419995</v>
       </c>
       <c r="J74" s="13">
-        <v>-34923642</v>
+        <v>-16633831</v>
       </c>
       <c r="K74" s="13">
         <v>-25774202</v>
@@ -2886,7 +2886,7 @@
         <v>-806126</v>
       </c>
       <c r="J75" s="11">
-        <v>-2109625</v>
+        <v>-1303499</v>
       </c>
       <c r="K75" s="11">
         <v>-111541</v>
@@ -2925,7 +2925,7 @@
         <v>-11910332</v>
       </c>
       <c r="J76" s="13">
-        <v>-45226009</v>
+        <v>-18875935</v>
       </c>
       <c r="K76" s="13">
         <v>-26399716</v>
@@ -3001,7 +3001,7 @@
         <v>-22811906</v>
       </c>
       <c r="J78" s="15">
-        <v>-85358787</v>
+        <v>-39237323</v>
       </c>
       <c r="K78" s="15">
         <v>-56808778</v>
@@ -3057,7 +3057,7 @@
         <v>-25272589</v>
       </c>
       <c r="J80" s="11">
-        <v>-61949161</v>
+        <v>-21758346</v>
       </c>
       <c r="K80" s="11">
         <v>-45013306</v>
@@ -3135,7 +3135,7 @@
         <v>-10193734</v>
       </c>
       <c r="J82" s="11">
-        <v>-50830386</v>
+        <v>-19008203</v>
       </c>
       <c r="K82" s="11">
         <v>-35650044</v>
@@ -3211,7 +3211,7 @@
         <v>-35466323</v>
       </c>
       <c r="J84" s="17">
-        <v>-113648736</v>
+        <v>-41635738</v>
       </c>
       <c r="K84" s="17">
         <v>-81933815</v>
@@ -3380,7 +3380,7 @@
         <v>-58278229</v>
       </c>
       <c r="J89" s="15">
-        <v>-199007523</v>
+        <v>-80873061</v>
       </c>
       <c r="K89" s="15">
         <v>-138742593</v>
@@ -3533,7 +3533,7 @@
         <v>227520</v>
       </c>
       <c r="J96" s="11">
-        <v>727357</v>
+        <v>499837</v>
       </c>
       <c r="K96" s="11">
         <v>1280188</v>
@@ -3572,7 +3572,7 @@
         <v>7658615</v>
       </c>
       <c r="J97" s="13">
-        <v>30892467</v>
+        <v>12187837</v>
       </c>
       <c r="K97" s="13">
         <v>7944392</v>
@@ -3611,7 +3611,7 @@
         <v>621176</v>
       </c>
       <c r="J98" s="11">
-        <v>1479588</v>
+        <v>858412</v>
       </c>
       <c r="K98" s="11">
         <v>-111541</v>
@@ -3650,7 +3650,7 @@
         <v>5023742</v>
       </c>
       <c r="J99" s="13">
-        <v>22565977</v>
+        <v>8062719</v>
       </c>
       <c r="K99" s="13">
         <v>-303523</v>
@@ -3726,7 +3726,7 @@
         <v>13531053</v>
       </c>
       <c r="J101" s="15">
-        <v>55665389</v>
+        <v>21608805</v>
       </c>
       <c r="K101" s="15">
         <v>8809516</v>
@@ -3782,7 +3782,7 @@
         <v>19862127</v>
       </c>
       <c r="J103" s="11">
-        <v>47906155</v>
+        <v>15120917</v>
       </c>
       <c r="K103" s="11">
         <v>13911622</v>
@@ -3860,7 +3860,7 @@
         <v>1144581</v>
       </c>
       <c r="J105" s="11">
-        <v>27470939</v>
+        <v>10563409</v>
       </c>
       <c r="K105" s="11">
         <v>9505559</v>
@@ -3936,7 +3936,7 @@
         <v>21006708</v>
       </c>
       <c r="J107" s="17">
-        <v>75917617</v>
+        <v>26224849</v>
       </c>
       <c r="K107" s="17">
         <v>24023428</v>
@@ -4027,7 +4027,7 @@
         <v>34537761</v>
       </c>
       <c r="J110" s="15">
-        <v>131583006</v>
+        <v>47833654</v>
       </c>
       <c r="K110" s="15">
         <v>32832944</v>
